--- a/Data/drugs_data_big2.xlsx
+++ b/Data/drugs_data_big2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF486FEA-3C90-BD49-BCCA-03A3C5E8DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F8AD5-1662-1A45-8C34-CB7A6143B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{F4AA2BEB-EDFF-5247-8523-487153F35C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -556,9 +556,6 @@
     <t>Topiramato</t>
   </si>
   <si>
-    <t>Valproato semisódico</t>
-  </si>
-  <si>
     <t>Zonisamida</t>
   </si>
   <si>
@@ -1162,6 +1159,9 @@
   </si>
   <si>
     <t>anti-inflamatório</t>
+  </si>
+  <si>
+    <t>Valproato</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58A342-8887-1441-91BB-E9053AEFEACF}">
   <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="O110" sqref="O110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2323,9 +2323,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>364</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="103" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B296">
         <v>2</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B300">
         <v>2</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B302">
         <v>2</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B331">
         <v>3</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B332">
         <v>3</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B348">
         <v>3</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B350">
         <v>3</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B351">
         <v>3</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B354">
         <v>3</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B355">
         <v>3</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B356">
         <v>3</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B357">
         <v>3</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B358">
         <v>3</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B359">
         <v>3</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B360">
         <v>3</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B361">
         <v>3</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B362">
         <v>3</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B363">
         <v>3</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B366">
         <v>3</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B367">
         <v>3</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B368">
         <v>3</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B370">
         <v>1</v>

--- a/Data/drugs_data_big2.xlsx
+++ b/Data/drugs_data_big2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F8AD5-1662-1A45-8C34-CB7A6143B7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E7C58-C2D1-BB4F-96C0-9C47F8DB5DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{F4AA2BEB-EDFF-5247-8523-487153F35C5B}"/>
   </bookViews>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58A342-8887-1441-91BB-E9053AEFEACF}">
   <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="O110" sqref="O110"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/drugs_data_big2.xlsx
+++ b/Data/drugs_data_big2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF486FEA-3C90-BD49-BCCA-03A3C5E8DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E7C58-C2D1-BB4F-96C0-9C47F8DB5DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{F4AA2BEB-EDFF-5247-8523-487153F35C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -556,9 +556,6 @@
     <t>Topiramato</t>
   </si>
   <si>
-    <t>Valproato semisódico</t>
-  </si>
-  <si>
     <t>Zonisamida</t>
   </si>
   <si>
@@ -1162,6 +1159,9 @@
   </si>
   <si>
     <t>anti-inflamatório</t>
+  </si>
+  <si>
+    <t>Valproato</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58A342-8887-1441-91BB-E9053AEFEACF}">
   <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2323,9 +2323,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>364</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="103" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B296">
         <v>2</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B300">
         <v>2</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B302">
         <v>2</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B331">
         <v>3</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B332">
         <v>3</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B348">
         <v>3</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B350">
         <v>3</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B351">
         <v>3</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B354">
         <v>3</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B355">
         <v>3</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B356">
         <v>3</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B357">
         <v>3</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B358">
         <v>3</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B359">
         <v>3</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B360">
         <v>3</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B361">
         <v>3</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B362">
         <v>3</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B363">
         <v>3</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B366">
         <v>3</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B367">
         <v>3</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B368">
         <v>3</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B370">
         <v>1</v>
